--- a/cam/USB2Serial_FT232RL_v1.0_2021-04-09-BoM.xlsx
+++ b/cam/USB2Serial_FT232RL_v1.0_2021-04-09-BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\USB2Serial\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C79CD1-0A9A-46A7-8C36-81C446A95205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F807D9-5B3E-4797-A7BB-078D762F0939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="230" windowWidth="20910" windowHeight="20770" activeTab="1" xr2:uid="{BD4AF433-2CA9-48DE-A966-D572C19D7C20}"/>
+    <workbookView xWindow="17430" yWindow="230" windowWidth="20910" windowHeight="20770" activeTab="1" xr2:uid="{BD4AF433-2CA9-48DE-A966-D572C19D7C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,13 +165,13 @@
     <t>C1017</t>
   </si>
   <si>
-    <t>C490691</t>
-  </si>
-  <si>
     <t>SSOP-28_5.3x10.2x0.65P</t>
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>C8690</t>
   </si>
 </sst>
 </file>
@@ -237,10 +237,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -299,9 +299,9 @@
   <autoFilter ref="A1:E12" xr:uid="{59FABB14-F96F-4685-AAD5-F5F1FB96B030}"/>
   <tableColumns count="5">
     <tableColumn id="23" xr3:uid="{F67C63D3-7BF9-4A04-AE3B-F392474AEF90}" uniqueName="23" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="26" xr3:uid="{FCDAFE72-9AF3-4BF6-A07B-8BA792C1B53D}" uniqueName="26" name="Designator" queryTableFieldId="25" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{014BE6B4-6E87-4CE6-A886-B42EBA878057}" uniqueName="25" name="Footprint" queryTableFieldId="24" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{34DEEC98-A162-4E20-98A4-7A64D20E446D}" uniqueName="2" name="Comment" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{FCDAFE72-9AF3-4BF6-A07B-8BA792C1B53D}" uniqueName="26" name="Designator" queryTableFieldId="25" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{014BE6B4-6E87-4CE6-A886-B42EBA878057}" uniqueName="25" name="Footprint" queryTableFieldId="24" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{34DEEC98-A162-4E20-98A4-7A64D20E446D}" uniqueName="2" name="Comment" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="28" xr3:uid="{6240DE7D-06EC-4F49-BB30-3A632B6A3B2F}" uniqueName="28" name="LCSC Part #" queryTableFieldId="27" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -794,13 +794,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -849,7 +849,7 @@
     <hyperlink ref="E9" r:id="rId7" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Blue-light_C72041.html/?href=jlc-SMT" xr:uid="{70469A6A-17F9-4CA6-9282-3B3EB7596F17}"/>
     <hyperlink ref="E11" r:id="rId8" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Green-light_C72043.html/?href=jlc-SMT" xr:uid="{815B8C0B-4C91-41CA-85FD-9516FCF20621}"/>
     <hyperlink ref="E12" r:id="rId9" display="https://lcsc.com/product-detail/Beads_Sunlord-GZ2012D601TF_C1017.html/?href=jlc-SMT" xr:uid="{1E6F03B9-37F2-40A9-B4CE-1353EF9910EC}"/>
-    <hyperlink ref="E10" r:id="rId10" display="https://lcsc.com/product-detail/USB-ICs_FTDI-FT232RL_C490691.html/?href=jlc-SMT" xr:uid="{C3174890-2A2B-4D58-AE2B-9E0095361BD0}"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://lcsc.com/product-detail/USB_FTDI_FT232RL-REEL_FT232RL-REEL_C8690.html/?href=jlc-SMT" xr:uid="{25EC49CA-C4E1-4B0E-8E39-5568E5E0293B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>

--- a/cam/USB2Serial_FT232RL_v1.0_2021-04-09-BoM.xlsx
+++ b/cam/USB2Serial_FT232RL_v1.0_2021-04-09-BoM.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\USB2Serial\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F807D9-5B3E-4797-A7BB-078D762F0939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DB2309-CF43-4CA4-9DE7-892D0CEBC25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="230" windowWidth="20910" windowHeight="20770" activeTab="1" xr2:uid="{BD4AF433-2CA9-48DE-A966-D572C19D7C20}"/>
+    <workbookView xWindow="24330" yWindow="840" windowWidth="16430" windowHeight="19950" xr2:uid="{BD4AF433-2CA9-48DE-A966-D572C19D7C20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$D$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$D$12</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -604,18 +603,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057FB5E3-6A08-44F2-BEC7-B3F96776CD17}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AA1CB6-5879-47F2-8C93-FED827F14A68}">
   <dimension ref="A1:E12"/>
   <sheetViews>
